--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953126.884565732</v>
+        <v>1948822.544755864</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9980624.860571688</v>
+        <v>9980624.86057169</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>244.8448976285502</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>221.0427070190019</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.7781841696921</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14.92574874287226</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>139.2828448129278</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>152.3527947820795</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7.155295256393153</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>168.3967303567125</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>114.2429095594348</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>155.2537761190401</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>106.6326495593141</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>62.58785859899147</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465096</v>
+        <v>65.76608425465002</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.0453666896856</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>302.2970057442355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614514</v>
+        <v>92.83909691614502</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115266</v>
+        <v>18.47335059663155</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.379115290174</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0697045406876</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>203.9965360389284</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640957</v>
+        <v>101.5869591640952</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>3.269361781470566</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>241.5680135275193</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634817</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>124.0908577194982</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>249.6700188375714</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986316</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>63.69463930750474</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>145.2857567969021</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206814</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>1.632620083627089</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>21.90286287505374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710095</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>47.84205650382737</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>156.0551722706137</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.246821098622</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>49.48749137896131</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>114.2935157990533</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>243.4759147696085</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>16.92025364381838</v>
       </c>
       <c r="I37" t="n">
-        <v>67.96386702300535</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>161.017508575551</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>169.086409524568</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>91.89996056624804</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>534.7928453799755</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="C2" t="n">
-        <v>534.7928453799755</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="D2" t="n">
-        <v>534.7928453799755</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="E2" t="n">
-        <v>534.7928453799755</v>
+        <v>410.8916005921556</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030612</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991325</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.514968335842</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471535</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>534.7928453799755</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>534.7928453799755</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799755</v>
+        <v>677.2692571593335</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.9431130093283</v>
+        <v>832.0187073593814</v>
       </c>
       <c r="C3" t="n">
-        <v>611.9431130093283</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="D3" t="n">
-        <v>463.008703348077</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="E3" t="n">
-        <v>303.7712483426215</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>157.2366903695065</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957466</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302312</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4445,16 +4445,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742821</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W3" t="n">
-        <v>819.7034117742821</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X3" t="n">
-        <v>819.7034117742821</v>
+        <v>1039.779006124335</v>
       </c>
       <c r="Y3" t="n">
-        <v>611.9431130093283</v>
+        <v>832.0187073593814</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434483</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434483</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434483</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434483</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>785.3732496054271</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>530.6887613995402</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>264.3111048323622</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434483</v>
+        <v>634.5861515377562</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434483</v>
+        <v>634.5861515377562</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>574.0438072739748</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="C5" t="n">
-        <v>574.0438072739748</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="D5" t="n">
-        <v>574.0438072739748</v>
+        <v>566.8162363079209</v>
       </c>
       <c r="E5" t="n">
-        <v>574.0438072739748</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411528</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X5" t="n">
-        <v>574.0438072739748</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="Y5" t="n">
-        <v>574.0438072739748</v>
+        <v>840.4214638411526</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>639.2437210355381</v>
+        <v>503.7220043479542</v>
       </c>
       <c r="C6" t="n">
-        <v>464.7906917544111</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>349.3938134115477</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>349.3938134115477</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>847.004019800492</v>
+        <v>879.6976401329762</v>
       </c>
       <c r="Y6" t="n">
-        <v>639.2437210355381</v>
+        <v>671.9373413680223</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>159.7059716361716</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C7" t="n">
-        <v>159.7059716361716</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D7" t="n">
-        <v>159.7059716361716</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4758,19 +4758,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>788.4778634388467</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>533.7933752329599</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>267.4157186657819</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>159.7059716361716</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>159.7059716361716</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>944.3337701408068</v>
+        <v>1623.150039254678</v>
       </c>
       <c r="C8" t="n">
-        <v>944.3337701408068</v>
+        <v>1254.187522314266</v>
       </c>
       <c r="D8" t="n">
-        <v>944.3337701408068</v>
+        <v>895.9218237075158</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3337701408068</v>
+        <v>895.9218237075158</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511992</v>
+        <v>484.9359189179083</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428664</v>
+        <v>421.7158597270078</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428664</v>
+        <v>117.641643342866</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467157</v>
+        <v>187.3702251467179</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607387</v>
+        <v>442.175743760744</v>
       </c>
       <c r="L8" t="n">
-        <v>795.186282904587</v>
+        <v>795.1862829045956</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995218</v>
+        <v>1219.647962995231</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209573</v>
+        <v>1655.59168520959</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940582</v>
+        <v>2053.905718940603</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550182</v>
+        <v>2359.356530550206</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661146</v>
+        <v>2540.564622661173</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342765</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342765</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342765</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868335</v>
+        <v>2306.981581868363</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.918694524764</v>
+        <v>1975.918694524792</v>
       </c>
       <c r="W8" t="n">
-        <v>1623.15003925465</v>
+        <v>1623.150039254678</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.68428099357</v>
+        <v>1623.150039254678</v>
       </c>
       <c r="Y8" t="n">
-        <v>944.3337701408068</v>
+        <v>1623.150039254678</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010877</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199607</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818587095</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.884826853254</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.350268880139</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763272</v>
       </c>
       <c r="H9" t="n">
-        <v>71.6655983999388</v>
+        <v>69.87120530446349</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637176</v>
+        <v>238.3188829507241</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148155</v>
+        <v>589.4696922330286</v>
       </c>
       <c r="L9" t="n">
-        <v>592.621737748295</v>
+        <v>884.0056756665108</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062225941</v>
+        <v>1247.072144140813</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.772608695161</v>
+        <v>1634.156546613384</v>
       </c>
       <c r="O9" t="n">
-        <v>1674.659418682548</v>
+        <v>1966.043356600774</v>
       </c>
       <c r="P9" t="n">
-        <v>2236.972918065709</v>
+        <v>2213.078715030399</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442608</v>
+        <v>2536.272628442635</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342765</v>
+        <v>2560.562760342793</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.82628025168</v>
+        <v>2424.826280251708</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685329</v>
+        <v>2230.816477685357</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751558</v>
+        <v>2002.726321751587</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519815</v>
+        <v>1767.574213519844</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791614</v>
+        <v>1513.336856791643</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.48535658611</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821156</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>367.1114736495578</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="C10" t="n">
-        <v>367.1114736495578</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="D10" t="n">
-        <v>367.1114736495578</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="E10" t="n">
-        <v>219.1983800671646</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="F10" t="n">
-        <v>219.1983800671646</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2112552068553</v>
+        <v>51.21125520685586</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380061</v>
+        <v>76.63468308380193</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676551</v>
+        <v>248.2500215676577</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368892</v>
+        <v>523.3850043368934</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899903996</v>
+        <v>823.8653899904054</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101607</v>
+        <v>1122.635640101615</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931085</v>
+        <v>1382.582027931094</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616493</v>
+        <v>1581.490387616504</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477355</v>
+        <v>1635.769145477367</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412612</v>
+        <v>1533.156055412624</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412612</v>
+        <v>1336.515802634458</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.174753887017</v>
+        <v>1333.213416996609</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.174753887017</v>
+        <v>1044.095043491251</v>
       </c>
       <c r="V10" t="n">
-        <v>1066.166659414775</v>
+        <v>789.4105552853639</v>
       </c>
       <c r="W10" t="n">
-        <v>776.7494893778148</v>
+        <v>499.9933852484033</v>
       </c>
       <c r="X10" t="n">
-        <v>548.7599384797975</v>
+        <v>272.0038343503859</v>
       </c>
       <c r="Y10" t="n">
-        <v>548.7599384797975</v>
+        <v>51.21125520685586</v>
       </c>
     </row>
     <row r="11">
@@ -5035,31 +5035,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>800.6374272687975</v>
+        <v>915.1035305473703</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408906</v>
+        <v>746.1673476194634</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>596.0507082071276</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>448.1376146247345</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>301.2476671268241</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>301.2476671268241</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.169680383432</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.485192177545</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.068022140585</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.078471242567</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.2858920990373</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>1021.293348608258</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>852.3571656803476</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>702.2405262680119</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>554.3274326856188</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>407.4374851877084</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>240.2413859025883</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1202.941813438498</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
         <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1499.097958200834</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302816</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159286</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,19 +5834,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5934,13 +5934,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
         <v>1746.193029533436</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,16 +6022,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6135,13 +6135,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,40 +6238,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400789</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400789</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400789</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576858</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F28" t="n">
-        <v>365.9405071576858</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832671</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487575</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510516</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854714</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648827</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611866</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138488</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703187</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459591</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>599.6019060180581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>599.6019060180581</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>452.7119585201477</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>285.5158592350277</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>143.8040280772258</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919729</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761988</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615669</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334542</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.78353867329</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667835</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.01152569472</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740628</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385794</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913449</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2381.235169913449</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2876.560776129208</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3051.06265415652</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3678.660617711127</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4230.570347950415</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445483</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445483</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398596</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301209</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022983</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566168</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334425</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606223</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400691</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635737</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6855,49 +6855,49 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.469384076044</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.867919098985</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.792692443183</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1501.108204237296</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>1501.108204237296</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
         <v>1501.108204237296</v>
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118214</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289435</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3809.631423131745</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4437.229386686352</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.2946447138415</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>916.2946447138415</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>766.1780053015058</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E37" t="n">
-        <v>618.2649117191127</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F37" t="n">
-        <v>471.3749642212023</v>
+        <v>278.1039276298782</v>
       </c>
       <c r="G37" t="n">
-        <v>304.1788649360822</v>
+        <v>110.9078283447581</v>
       </c>
       <c r="H37" t="n">
-        <v>162.4670337782803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138415</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,46 +7405,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>847.644273983533</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1767.492038892281</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1478.07486885532</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1250.085317957303</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.292738813773</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647281</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368213</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>481.4479471244855</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420924</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>186.644906044182</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949679</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127258</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140412</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.2361746779844</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>185.9417291142978</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>16.20385512672564</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>36.51445555167274</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.60007353871912</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>72.11969353038614</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>284.8903782529639</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>117.6820817884415</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>61.35027805667454</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>31.7783449396042</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>66.73277020259123</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>8.661728554219479</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>123.3744592024055</v>
       </c>
       <c r="I37" t="n">
-        <v>13.30196929556017</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>83.05123379925996</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>73.6241777260208</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>882555.0412658559</v>
+        <v>882555.041265856</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>857872.9770797162</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857872.9770797162</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.9770797159</v>
+        <v>857872.977079716</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.619783004</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830044</v>
@@ -26337,25 +26337,25 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580741</v>
+        <v>390680.0076580815</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606975</v>
+        <v>507909.232060691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.002510788104697e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911458</v>
+        <v>68999.15441911401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101645</v>
+        <v>95270.23779101825</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954701</v>
+        <v>132717.9756954684</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,40 +26423,40 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501131</v>
+        <v>140465.251750111</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179346</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
+        <v>11167.03225179348</v>
+      </c>
+      <c r="J4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="J4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="K4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.8675756786</v>
+        <v>92902.86757567916</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26493,13 +26493,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-419633.9105094803</v>
+        <v>-419633.9105094804</v>
       </c>
       <c r="C6" t="n">
-        <v>260454.0700817128</v>
+        <v>260454.0700817127</v>
       </c>
       <c r="D6" t="n">
-        <v>-49318.88807886737</v>
+        <v>-49318.88807887315</v>
       </c>
       <c r="E6" t="n">
-        <v>-55196.17435339384</v>
+        <v>-55543.55360774422</v>
       </c>
       <c r="F6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529467</v>
       </c>
       <c r="G6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529465</v>
       </c>
       <c r="H6" t="n">
-        <v>452713.0577073036</v>
+        <v>452365.6784529469</v>
       </c>
       <c r="I6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529469</v>
       </c>
       <c r="J6" t="n">
-        <v>383713.9032881894</v>
+        <v>383366.5240338329</v>
       </c>
       <c r="K6" t="n">
-        <v>452713.0577073038</v>
+        <v>452365.6784529469</v>
       </c>
       <c r="L6" t="n">
-        <v>357442.8199162876</v>
+        <v>357095.4406619286</v>
       </c>
       <c r="M6" t="n">
-        <v>319995.0820118341</v>
+        <v>319647.7027574783</v>
       </c>
       <c r="N6" t="n">
-        <v>452713.0577073037</v>
+        <v>452365.6784529467</v>
       </c>
       <c r="O6" t="n">
-        <v>452713.0577073038</v>
+        <v>452365.6784529468</v>
       </c>
       <c r="P6" t="n">
-        <v>452713.057707304</v>
+        <v>452365.6784529468</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627789</v>
+        <v>933.702459562785</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856912</v>
+        <v>640.1406900856982</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,22 +26813,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933006</v>
+        <v>319.6474457933067</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788946</v>
+        <v>434.273040778889</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841849</v>
+        <v>376.426810084192</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139569</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,22 +27029,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.965991048521249e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015068</v>
+        <v>263.7138800015059</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841849</v>
+        <v>376.4268100841921</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139566</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841849</v>
+        <v>376.426810084192</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139569</v>
+        <v>532.5675980139501</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.965991048521249e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>162.0311481131612</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>165.1952316370517</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.244535416731338</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27517,13 +27517,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.8472364606052</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27560,7 +27560,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>146.9757856897497</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350848</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>73.35686060695767</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>347.5277463642898</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>238.4793153849989</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>33.20215600520396</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>50.51920908443734</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.00172017663371</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.8091183350848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>119.077005829723</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>348.961301189258</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203006</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.485417134841</v>
+        <v>123.4854171348404</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>83.94093291181809</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164520667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27997,7 +27997,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1.776449164549064</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430997</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>217.4821267288682</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>10.5696297963087</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28487,7 +28487,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-3.893815138030078e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.301146286410376e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29465,7 +29465,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>6.598573539425463e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29577,7 +29577,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>-1.347668450196373e-12</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29672,7 +29672,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.844450849205411e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885541</v>
+        <v>3.753577726885565</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546655</v>
+        <v>38.4413278954668</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157549</v>
+        <v>144.7098053157559</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972519</v>
+        <v>318.580217597254</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776317</v>
+        <v>477.46916277632</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354905</v>
+        <v>592.3427171354942</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359911</v>
+        <v>659.0954050359954</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525048</v>
+        <v>669.7602577525091</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307866</v>
+        <v>632.4356192307907</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690982997</v>
+        <v>539.7691690983032</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542112</v>
+        <v>405.3441667542138</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864741</v>
+        <v>235.7856768864756</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140434</v>
+        <v>85.5346524514049</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944146</v>
+        <v>16.43128649944157</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508432</v>
+        <v>0.3002862181508451</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436921</v>
+        <v>2.008341139436934</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035132</v>
+        <v>19.39634732035144</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026242</v>
+        <v>69.14683309026286</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079417</v>
+        <v>189.744195107943</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502154</v>
+        <v>324.3030514502175</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571262</v>
+        <v>436.065474157129</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617144</v>
+        <v>508.8678404617177</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152191</v>
+        <v>522.3360580152225</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519063</v>
+        <v>477.8354464519094</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947573</v>
+        <v>383.5050724947598</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463691</v>
+        <v>256.3629847463707</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204783</v>
+        <v>124.6933209204791</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366383</v>
+        <v>37.30405581366407</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133901</v>
+        <v>8.095024154133954</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419027</v>
+        <v>0.1321277065419036</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752552</v>
+        <v>1.683725746752563</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254839997</v>
+        <v>14.96985254840007</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415858</v>
+        <v>50.63422518415891</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954054</v>
+        <v>119.0394102954062</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577251</v>
+        <v>195.6183185772523</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490113</v>
+        <v>250.3240987490129</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023113</v>
+        <v>263.9316641023131</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462339</v>
+        <v>257.6559590462355</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046244</v>
+        <v>237.986981004626</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708722</v>
+        <v>203.6389757708735</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939796</v>
+        <v>140.9890713939805</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307382</v>
+        <v>75.70643221307431</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658764</v>
+        <v>29.34274778658784</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942721</v>
+        <v>7.194100917942767</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650294</v>
+        <v>0.09183958618650354</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496639</v>
+        <v>139.5228722182826</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>381.6404378718165</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>409.0029787211712</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>318.3985571819301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>361.7519118779087</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>602.8420149078237</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572288</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34874,7 +34874,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204532</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
         <v>6.560263827496826</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705656</v>
+        <v>137.5343130705677</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313364</v>
+        <v>257.3793117313395</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655033</v>
+        <v>356.576302165507</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087184</v>
+        <v>428.7491718087227</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559139</v>
+        <v>440.3471941559182</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078090999</v>
+        <v>402.337407809104</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430302</v>
+        <v>308.5361733430337</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797617</v>
+        <v>183.0384768797643</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234193</v>
+        <v>20.20013907234343</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127506</v>
+        <v>188.9976037816851</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758564</v>
+        <v>354.6977871538429</v>
       </c>
       <c r="L9" t="n">
-        <v>297.511094377252</v>
+        <v>297.5110943772548</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396961</v>
+        <v>366.7338065396994</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318858</v>
+        <v>390.9943459318893</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074619</v>
+        <v>335.2392020074649</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203642</v>
+        <v>249.5306650804295</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.3229397746454</v>
+        <v>326.4584983961983</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783521</v>
+        <v>24.53548676783601</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873264</v>
+        <v>25.68023017873341</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513681</v>
+        <v>173.3488267513694</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093275</v>
+        <v>277.914124009329</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641519</v>
+        <v>303.5155410641536</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254624</v>
+        <v>301.7881314254641</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186641</v>
+        <v>262.5721089186657</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357657</v>
+        <v>200.917535035767</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228522</v>
+        <v>54.82702814228612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663306</v>
+        <v>8.181160134949316</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>243.7989988974575</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>266.8689447991529</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010518</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>176.2645232599117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>219.1556674334643</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.5003028244903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1948822.544755864</v>
+        <v>1950583.075058649</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015061</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.0427070190019</v>
+        <v>212.5689651179051</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>14.92574874287226</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>145.0285294090726</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>152.3527947820795</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.155295256393153</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>148.6865099692908</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>184.8286470525332</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>155.2537761190401</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10.16188515252987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>209.8876965071501</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>62.58785859899147</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.55872685924</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614502</v>
+        <v>92.83909691614508</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059663155</v>
+        <v>20.24979976115243</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901738</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406876</v>
+        <v>192.0697045406877</v>
       </c>
       <c r="U9" t="n">
         <v>225.8092543744329</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640952</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.269361781470566</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.79272935006631</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>124.0908577194982</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986316</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H16" t="n">
-        <v>63.69463930750474</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710087</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206814</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>54.63637568893558</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>156.0551722706137</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>243.4759147696085</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>16.92025364381838</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>129.7194509233173</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4146,16 +4146,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410.8916005921556</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="C2" t="n">
-        <v>410.8916005921556</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="E2" t="n">
-        <v>410.8916005921556</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>677.2692571593335</v>
+        <v>840.1393936243022</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832.0187073593814</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>657.5656780782545</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6312684170032</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4412,49 +4412,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891335</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>1039.779006124335</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y3" t="n">
-        <v>832.0187073593814</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.5861515377562</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C4" t="n">
-        <v>634.5861515377562</v>
+        <v>619.5416805109397</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>469.425041098604</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>321.5119475162109</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>321.5119475162109</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.09711040012049</v>
@@ -4521,19 +4521,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W4" t="n">
         <v>788.4778634388466</v>
       </c>
       <c r="X4" t="n">
-        <v>634.5861515377562</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y4" t="n">
-        <v>634.5861515377562</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.4214638411526</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="C5" t="n">
-        <v>574.0438072739746</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="D5" t="n">
-        <v>566.8162363079209</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="E5" t="n">
-        <v>300.4385797407429</v>
+        <v>157.4777567984221</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4606,13 +4606,13 @@
         <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>840.4214638411526</v>
+        <v>690.233069932778</v>
       </c>
       <c r="X5" t="n">
-        <v>840.4214638411526</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.4214638411526</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7220043479542</v>
+        <v>492.1842811376358</v>
       </c>
       <c r="C6" t="n">
-        <v>329.2689750668272</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="D6" t="n">
-        <v>180.334565405576</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>868.1599169226577</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>868.1599169226577</v>
       </c>
       <c r="X6" t="n">
-        <v>879.6976401329762</v>
+        <v>868.1599169226577</v>
       </c>
       <c r="Y6" t="n">
-        <v>671.9373413680223</v>
+        <v>660.3996181577038</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>645.2175042777675</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063304</v>
+        <v>476.2813213498606</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939947</v>
+        <v>326.1646819375248</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>178.2515883551317</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>31.36164085722137</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>31.36164085722137</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>31.36164085722137</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>31.36164085722137</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4734,7 +4734,7 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
         <v>739.1822330227046</v>
@@ -4770,7 +4770,7 @@
         <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>826.8659691080072</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1623.150039254678</v>
+        <v>650.7928651140462</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.187522314266</v>
+        <v>281.8303481736345</v>
       </c>
       <c r="D8" t="n">
-        <v>895.9218237075158</v>
+        <v>69.82257392398786</v>
       </c>
       <c r="E8" t="n">
-        <v>895.9218237075158</v>
+        <v>69.82257392398786</v>
       </c>
       <c r="F8" t="n">
-        <v>484.9359189179083</v>
+        <v>62.87707317478439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270078</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H8" t="n">
-        <v>117.641643342866</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685586</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467179</v>
+        <v>187.3702251467167</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760744</v>
+        <v>442.1757437607413</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045956</v>
+        <v>795.1862829045913</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995231</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520959</v>
+        <v>1655.591685209582</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940603</v>
+        <v>2053.905718940593</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550206</v>
+        <v>2359.356530550195</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661173</v>
+        <v>2540.56462266116</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342793</v>
+        <v>2351.810676439053</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868363</v>
+        <v>2098.229497964623</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.918694524792</v>
+        <v>1767.166610621052</v>
       </c>
       <c r="W8" t="n">
-        <v>1623.150039254678</v>
+        <v>1414.397955350938</v>
       </c>
       <c r="X8" t="n">
-        <v>1623.150039254678</v>
+        <v>1040.932197089858</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.150039254678</v>
+        <v>650.7928651140462</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010877</v>
+        <v>929.5097208010745</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199607</v>
+        <v>755.0566915199475</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587095</v>
+        <v>606.1222818586963</v>
       </c>
       <c r="E9" t="n">
-        <v>446.884826853254</v>
+        <v>446.8848268532408</v>
       </c>
       <c r="F9" t="n">
-        <v>300.350268880139</v>
+        <v>300.3502688801258</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763272</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.87120530446349</v>
+        <v>71.66559839993886</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685586</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J9" t="n">
-        <v>238.3188829507241</v>
+        <v>238.3188829507233</v>
       </c>
       <c r="K9" t="n">
-        <v>589.4696922330286</v>
+        <v>684.7364639442751</v>
       </c>
       <c r="L9" t="n">
-        <v>884.0056756665108</v>
+        <v>979.272447377756</v>
       </c>
       <c r="M9" t="n">
-        <v>1247.072144140813</v>
+        <v>1342.338915852057</v>
       </c>
       <c r="N9" t="n">
-        <v>1634.156546613384</v>
+        <v>1729.423318324626</v>
       </c>
       <c r="O9" t="n">
-        <v>1966.043356600774</v>
+        <v>2061.310128312015</v>
       </c>
       <c r="P9" t="n">
-        <v>2213.078715030399</v>
+        <v>2308.345486741639</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442635</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342793</v>
+        <v>2560.56276034278</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251708</v>
+        <v>2424.826280251695</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685357</v>
+        <v>2230.816477685344</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751587</v>
+        <v>2002.726321751574</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519844</v>
+        <v>1767.574213519831</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791643</v>
+        <v>1513.336856791629</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.48535658611</v>
+        <v>1305.485356586096</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821156</v>
+        <v>1097.725057821143</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685586</v>
+        <v>665.0671186274017</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685586</v>
+        <v>496.1309356994948</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685586</v>
+        <v>346.0142962871591</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685586</v>
+        <v>198.101202704766</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685586</v>
+        <v>51.2112552068556</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380193</v>
+        <v>76.63468308380132</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676577</v>
+        <v>248.2500215676565</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368934</v>
+        <v>523.3850043368914</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904054</v>
+        <v>823.8653899904027</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101615</v>
+        <v>1122.635640101611</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931094</v>
+        <v>1382.58202793109</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616504</v>
+        <v>1581.490387616498</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477367</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412624</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634458</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="T10" t="n">
-        <v>1333.213416996609</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="U10" t="n">
-        <v>1044.095043491251</v>
+        <v>1635.769145477361</v>
       </c>
       <c r="V10" t="n">
-        <v>789.4105552853639</v>
+        <v>1381.084657271474</v>
       </c>
       <c r="W10" t="n">
-        <v>499.9933852484033</v>
+        <v>1091.667487234514</v>
       </c>
       <c r="X10" t="n">
-        <v>272.0038343503859</v>
+        <v>863.6779363364963</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.21125520685586</v>
+        <v>846.7155834576414</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,25 +5068,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>746.1673476194634</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>596.0507082071276</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E13" t="n">
-        <v>448.1376146247345</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F13" t="n">
-        <v>301.2476671268241</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G13" t="n">
-        <v>301.2476671268241</v>
+        <v>231.2993793749447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,19 +5290,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5369,7 +5369,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1021.293348608258</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>852.3571656803476</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>702.2405262680119</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>554.3274326856188</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F16" t="n">
-        <v>407.4374851877084</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G16" t="n">
-        <v>240.2413859025883</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.941813438498</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,28 +5752,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,13 +6004,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6138,7 +6138,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947871</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2106.476762093131</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529337</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6612,7 +6612,7 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6682,16 +6682,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="35">
@@ -6919,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6937,19 +6937,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>572.9069687101817</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>424.9938751277886</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>278.1039276298782</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>110.9078283447581</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2315.933335172869</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2096.33187019581</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7630,13 +7630,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127237</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.2361746779844</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.3837121690871</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.98618304348518</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>16.20385512672564</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H16" t="n">
-        <v>76.60007353871912</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>112.6104454096923</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>61.35027805667454</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>8.661728554219479</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>123.3744592024055</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>51.30683507832725</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>857872.9770797158</v>
+        <v>857872.9770797159</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>857872.977079716</v>
+        <v>857872.9770797158</v>
       </c>
     </row>
   </sheetData>
@@ -26319,40 +26319,40 @@
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="P2" t="n">
         <v>565002.6197830044</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580815</v>
+        <v>390680.007658078</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.232060691</v>
+        <v>507909.2320606941</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101825</v>
+        <v>95270.23779101743</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954684</v>
+        <v>132717.9756954693</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.251750111</v>
+        <v>140465.251750112</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567916</v>
+        <v>92902.86757567889</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>260454.0700817127</v>
       </c>
       <c r="D6" t="n">
-        <v>-49318.88807887315</v>
+        <v>-49318.88807887051</v>
       </c>
       <c r="E6" t="n">
-        <v>-55543.55360774422</v>
+        <v>-55230.91227882612</v>
       </c>
       <c r="F6" t="n">
-        <v>452365.6784529467</v>
+        <v>452678.319781868</v>
       </c>
       <c r="G6" t="n">
-        <v>452365.6784529465</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="H6" t="n">
-        <v>452365.6784529469</v>
+        <v>452678.3197818679</v>
       </c>
       <c r="I6" t="n">
-        <v>452365.6784529469</v>
+        <v>452678.3197818681</v>
       </c>
       <c r="J6" t="n">
-        <v>383366.5240338329</v>
+        <v>383679.1653627541</v>
       </c>
       <c r="K6" t="n">
-        <v>452365.6784529469</v>
+        <v>452678.3197818679</v>
       </c>
       <c r="L6" t="n">
-        <v>357095.4406619286</v>
+        <v>357408.0819908507</v>
       </c>
       <c r="M6" t="n">
-        <v>319647.7027574783</v>
+        <v>319960.3440863988</v>
       </c>
       <c r="N6" t="n">
-        <v>452365.6784529467</v>
+        <v>452678.3197818679</v>
       </c>
       <c r="O6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.3197818679</v>
       </c>
       <c r="P6" t="n">
-        <v>452365.6784529468</v>
+        <v>452678.319781868</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.702459562785</v>
+        <v>933.7024595627821</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,13 +26795,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856982</v>
+        <v>640.1406900856949</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933067</v>
+        <v>319.6474457933039</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778889</v>
+        <v>434.2730407788916</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.426810084192</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841921</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.426810084192</v>
+        <v>376.4268100841888</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139501</v>
+        <v>532.5675980139534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.1952316370517</v>
+        <v>173.6689735381485</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>190.8472364606052</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>21.85513762947394</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
@@ -27593,16 +27593,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>73.35686060695767</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>347.5277463642898</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>200.5544587481222</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,7 +27700,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,7 +27709,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>47.97194009689204</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>50.51920908443734</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663371</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>4.910313946352222</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>144.7953451135328</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>348.961301189258</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465048</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348404</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164533716</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164520667</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>217.4821267288682</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>201.7919240020285</v>
       </c>
     </row>
     <row r="11">
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28487,7 +28487,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28566,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.133261760295336e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.893815138030078e-13</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885565</v>
+        <v>3.753577726885553</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4413278954668</v>
+        <v>38.44132789546669</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157559</v>
+        <v>144.7098053157554</v>
       </c>
       <c r="J8" t="n">
-        <v>318.580217597254</v>
+        <v>318.580217597253</v>
       </c>
       <c r="K8" t="n">
-        <v>477.46916277632</v>
+        <v>477.4691627763186</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354942</v>
+        <v>592.3427171354924</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359954</v>
+        <v>659.0954050359934</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525091</v>
+        <v>669.7602577525071</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307907</v>
+        <v>632.4356192307888</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983032</v>
+        <v>539.7691690983016</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542138</v>
+        <v>405.3441667542126</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864756</v>
+        <v>235.7856768864748</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514049</v>
+        <v>85.53465245140464</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944157</v>
+        <v>16.43128649944152</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508451</v>
+        <v>0.3002862181508442</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436934</v>
+        <v>2.008341139436927</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035144</v>
+        <v>19.39634732035138</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026286</v>
+        <v>69.14683309026265</v>
       </c>
       <c r="J9" t="n">
-        <v>189.744195107943</v>
+        <v>189.7441951079424</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502175</v>
+        <v>324.3030514502165</v>
       </c>
       <c r="L9" t="n">
-        <v>436.065474157129</v>
+        <v>436.0654741571277</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617177</v>
+        <v>508.8678404617162</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152225</v>
+        <v>522.3360580152209</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519094</v>
+        <v>477.835446451908</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947598</v>
+        <v>383.5050724947586</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463707</v>
+        <v>256.3629847463699</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204791</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366407</v>
+        <v>37.30405581366396</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133954</v>
+        <v>8.095024154133929</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419036</v>
+        <v>0.1321277065419032</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752563</v>
+        <v>1.683725746752558</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840007</v>
+        <v>14.96985254840002</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415891</v>
+        <v>50.63422518415875</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954062</v>
+        <v>119.0394102954058</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772523</v>
+        <v>195.6183185772517</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490129</v>
+        <v>250.3240987490121</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023131</v>
+        <v>263.9316641023123</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462355</v>
+        <v>257.6559590462348</v>
       </c>
       <c r="O10" t="n">
-        <v>237.986981004626</v>
+        <v>237.9869810046252</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708735</v>
+        <v>203.6389757708729</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939805</v>
+        <v>140.9890713939801</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307431</v>
+        <v>75.70643221307408</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658784</v>
+        <v>29.34274778658775</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942767</v>
+        <v>7.194100917942745</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650354</v>
+        <v>0.09183958618650326</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659562</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877688</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705677</v>
+        <v>137.5343130705667</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313395</v>
+        <v>257.379311731338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165507</v>
+        <v>356.5763021655052</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087227</v>
+        <v>428.7491718087207</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559182</v>
+        <v>440.3471941559162</v>
       </c>
       <c r="O8" t="n">
-        <v>402.337407809104</v>
+        <v>402.337407809102</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430337</v>
+        <v>308.5361733430321</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797643</v>
+        <v>183.0384768797631</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234343</v>
+        <v>20.20013907234272</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>188.9976037816851</v>
+        <v>188.9976037816845</v>
       </c>
       <c r="K9" t="n">
-        <v>354.6977871538429</v>
+        <v>450.9268494884361</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772548</v>
+        <v>297.5110943772535</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396994</v>
+        <v>366.7338065396979</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318893</v>
+        <v>390.9943459318877</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074649</v>
+        <v>335.2392020074635</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804295</v>
+        <v>249.5306650804284</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961983</v>
+        <v>254.7649228294355</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783601</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873341</v>
+        <v>25.68023017873305</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513694</v>
+        <v>173.3488267513688</v>
       </c>
       <c r="L10" t="n">
-        <v>277.914124009329</v>
+        <v>277.9141240093282</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641536</v>
+        <v>303.5155410641528</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254641</v>
+        <v>301.7881314254633</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186657</v>
+        <v>262.5721089186649</v>
       </c>
       <c r="P10" t="n">
-        <v>200.917535035767</v>
+        <v>200.9175350357664</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228612</v>
+        <v>54.8270281422857</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
